--- a/KUPX6BA2.xlsx
+++ b/KUPX6BA2.xlsx
@@ -17,31 +17,31 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>LV2 (KUPX6BA2) Espagnol</t>
+  </si>
+  <si>
+    <t>KUPX6BA2</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>LV2 (KUPX6BA2) Japonais</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>jeudi</t>
-  </si>
-  <si>
-    <t>LV2 (KUPX6BA2) Espagnol</t>
-  </si>
-  <si>
-    <t>KUPX6BA2</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>LV2 (KUPX6BA2) Japonais</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>dimanche</t>
   </si>
   <si>
     <t>LV2 (KUPX6BA2) Allemand</t>
@@ -107,7 +107,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -161,7 +161,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>9</v>
@@ -200,7 +200,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>1</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>9</v>
@@ -293,7 +293,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>1</v>
@@ -347,7 +347,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>9</v>
@@ -386,7 +386,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>44966.0</v>
+        <v>46062.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>1</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>44969.0</v>
+        <v>46065.0</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>9</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>44973.0</v>
+        <v>46069.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>1</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>44976.0</v>
+        <v>46072.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>9</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>44980.0</v>
+        <v>46076.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>1</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>9</v>
